--- a/templates/instruction.xlsx
+++ b/templates/instruction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shun.tagami/projects/excel-util/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666F0E3C-B481-294D-9656-50F9D20FE407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5520AAA-C626-F242-A7F2-1C52179B044F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17800" yWindow="3160" windowWidth="29860" windowHeight="21200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="50600" windowHeight="26880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指摘事項一覧" sheetId="1" r:id="rId1"/>
@@ -44,8 +44,6 @@
     <definedName name="PlotMagY_22">[1]○ファイル情報!#REF!</definedName>
     <definedName name="PlotMagY_23" localSheetId="1">[1]○ファイル情報!#REF!</definedName>
     <definedName name="PlotMagY_23">[1]○ファイル情報!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">指摘写真一覧!$A$1:$V$32</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">指摘写真一覧!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>指摘内容</t>
     <rPh sb="0" eb="2">
@@ -110,6 +108,16 @@
     <t>完了日</t>
     <rPh sb="0" eb="3">
       <t>カンリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【出力日】</t>
+    <rPh sb="1" eb="3">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ビ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -209,6 +217,16 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>【図面名】</t>
+    <rPh sb="1" eb="3">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>仕上</t>
     <rPh sb="0" eb="2">
       <t>シアゲ</t>
@@ -234,6 +252,23 @@
   </si>
   <si>
     <t>#図面名#</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【案件名】</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">アンケン </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【検査種類】</t>
+    <rPh sb="1" eb="5">
+      <t xml:space="preserve">ケンサシュルイ </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -244,7 +279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -288,6 +323,12 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="24"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -300,7 +341,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,18 +350,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -381,30 +416,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -723,37 +736,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -775,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,19 +771,19 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -810,31 +792,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -843,25 +825,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -872,6 +848,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -891,22 +885,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -915,101 +909,53 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1416,8 +1362,8 @@
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="42" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H32"/>
+    <sheetView view="pageBreakPreview" zoomScale="59" zoomScaleNormal="42" zoomScaleSheetLayoutView="54" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24"/>
@@ -1447,75 +1393,83 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="13"/>
     </row>
-    <row r="2" spans="1:18" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43" t="s">
+    <row r="2" spans="1:18" ht="61.5" customHeight="1">
+      <c r="A2" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="61.5" customHeight="1" thickBot="1">
+      <c r="A3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="35" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="36"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="40"/>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
       <c r="K4" s="15"/>
@@ -1525,17 +1479,17 @@
       <c r="O4" s="16"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
-      <c r="R4" s="26"/>
+      <c r="R4" s="24"/>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
       <c r="K5" s="18"/>
@@ -1545,17 +1499,17 @@
       <c r="O5" s="19"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
-      <c r="R5" s="27"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A6" s="70"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="75"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
       <c r="K6" s="18"/>
@@ -1565,17 +1519,17 @@
       <c r="O6" s="19"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
-      <c r="R6" s="27"/>
+      <c r="R6" s="25"/>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="70"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="8"/>
       <c r="J7" s="9"/>
       <c r="K7" s="18"/>
@@ -1585,17 +1539,17 @@
       <c r="O7" s="19"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
-      <c r="R7" s="27"/>
+      <c r="R7" s="25"/>
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="75"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="8"/>
       <c r="J8" s="9"/>
       <c r="K8" s="18"/>
@@ -1605,17 +1559,17 @@
       <c r="O8" s="19"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="20"/>
-      <c r="R8" s="27"/>
+      <c r="R8" s="25"/>
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A9" s="70"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="8"/>
       <c r="J9" s="9"/>
       <c r="K9" s="18"/>
@@ -1625,17 +1579,17 @@
       <c r="O9" s="19"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
-      <c r="R9" s="27"/>
+      <c r="R9" s="25"/>
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="8"/>
       <c r="J10" s="9"/>
       <c r="K10" s="18"/>
@@ -1645,17 +1599,17 @@
       <c r="O10" s="19"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
-      <c r="R10" s="27"/>
+      <c r="R10" s="25"/>
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="8"/>
       <c r="J11" s="9"/>
       <c r="K11" s="18"/>
@@ -1665,17 +1619,17 @@
       <c r="O11" s="19"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
-      <c r="R11" s="27"/>
+      <c r="R11" s="25"/>
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
       <c r="I12" s="8"/>
       <c r="J12" s="9"/>
       <c r="K12" s="18"/>
@@ -1685,17 +1639,17 @@
       <c r="O12" s="19"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
-      <c r="R12" s="27"/>
+      <c r="R12" s="25"/>
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="8"/>
       <c r="J13" s="9"/>
       <c r="K13" s="18"/>
@@ -1705,17 +1659,17 @@
       <c r="O13" s="19"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
-      <c r="R13" s="27"/>
+      <c r="R13" s="25"/>
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A14" s="70"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="8"/>
       <c r="J14" s="9"/>
       <c r="K14" s="18"/>
@@ -1725,17 +1679,17 @@
       <c r="O14" s="19"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
-      <c r="R14" s="27"/>
+      <c r="R14" s="25"/>
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="8"/>
       <c r="J15" s="9"/>
       <c r="K15" s="18"/>
@@ -1745,17 +1699,17 @@
       <c r="O15" s="19"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
-      <c r="R15" s="27"/>
+      <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A16" s="70"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="8"/>
       <c r="J16" s="9"/>
       <c r="K16" s="18"/>
@@ -1765,17 +1719,17 @@
       <c r="O16" s="19"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
-      <c r="R16" s="27"/>
+      <c r="R16" s="25"/>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
       <c r="I17" s="8"/>
       <c r="J17" s="9"/>
       <c r="K17" s="18"/>
@@ -1785,17 +1739,17 @@
       <c r="O17" s="19"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
-      <c r="R17" s="27"/>
+      <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A18" s="70"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="8"/>
       <c r="J18" s="9"/>
       <c r="K18" s="18"/>
@@ -1805,17 +1759,17 @@
       <c r="O18" s="19"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
-      <c r="R18" s="27"/>
+      <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A19" s="70"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="8"/>
       <c r="J19" s="9"/>
       <c r="K19" s="18"/>
@@ -1825,17 +1779,17 @@
       <c r="O19" s="19"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
-      <c r="R19" s="27"/>
+      <c r="R19" s="25"/>
     </row>
     <row r="20" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="8"/>
       <c r="J20" s="9"/>
       <c r="K20" s="18"/>
@@ -1845,17 +1799,17 @@
       <c r="O20" s="19"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
-      <c r="R20" s="27"/>
+      <c r="R20" s="25"/>
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="8"/>
       <c r="J21" s="9"/>
       <c r="K21" s="18"/>
@@ -1865,17 +1819,17 @@
       <c r="O21" s="19"/>
       <c r="P21" s="20"/>
       <c r="Q21" s="20"/>
-      <c r="R21" s="27"/>
+      <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="8"/>
       <c r="J22" s="9"/>
       <c r="K22" s="18"/>
@@ -1885,17 +1839,17 @@
       <c r="O22" s="19"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="20"/>
-      <c r="R22" s="27"/>
+      <c r="R22" s="25"/>
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A23" s="70"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="8"/>
       <c r="J23" s="9"/>
       <c r="K23" s="18"/>
@@ -1905,17 +1859,17 @@
       <c r="O23" s="19"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="20"/>
-      <c r="R23" s="27"/>
+      <c r="R23" s="25"/>
     </row>
     <row r="24" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
       <c r="K24" s="18"/>
@@ -1925,17 +1879,17 @@
       <c r="O24" s="19"/>
       <c r="P24" s="20"/>
       <c r="Q24" s="20"/>
-      <c r="R24" s="27"/>
+      <c r="R24" s="25"/>
     </row>
     <row r="25" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="8"/>
       <c r="J25" s="9"/>
       <c r="K25" s="18"/>
@@ -1945,17 +1899,17 @@
       <c r="O25" s="19"/>
       <c r="P25" s="20"/>
       <c r="Q25" s="20"/>
-      <c r="R25" s="27"/>
+      <c r="R25" s="25"/>
     </row>
     <row r="26" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A26" s="70"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="8"/>
       <c r="J26" s="9"/>
       <c r="K26" s="18"/>
@@ -1965,17 +1919,17 @@
       <c r="O26" s="19"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="20"/>
-      <c r="R26" s="27"/>
+      <c r="R26" s="25"/>
     </row>
     <row r="27" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A27" s="70"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
       <c r="I27" s="8"/>
       <c r="J27" s="9"/>
       <c r="K27" s="18"/>
@@ -1985,17 +1939,17 @@
       <c r="O27" s="19"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
-      <c r="R27" s="27"/>
+      <c r="R27" s="25"/>
     </row>
     <row r="28" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A28" s="70"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
       <c r="K28" s="18"/>
@@ -2005,17 +1959,17 @@
       <c r="O28" s="19"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
-      <c r="R28" s="27"/>
+      <c r="R28" s="25"/>
     </row>
     <row r="29" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A29" s="70"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="75"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9"/>
       <c r="K29" s="18"/>
@@ -2025,67 +1979,67 @@
       <c r="O29" s="19"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="20"/>
-      <c r="R29" s="27"/>
+      <c r="R29" s="25"/>
     </row>
     <row r="30" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A30" s="70"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="51"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="25"/>
     </row>
     <row r="31" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A31" s="70"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="54"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="25"/>
     </row>
     <row r="32" spans="1:18" s="2" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A32" s="76"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="57"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="25"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3"/>
@@ -2098,8 +2052,15 @@
       <c r="H33" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="A4:H32"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -2107,17 +2068,10 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I30:R32"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <pageMargins left="0.27559055118110237" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0" footer="0"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="8" scale="50" orientation="landscape" blackAndWhite="1" horizontalDpi="1200" verticalDpi="360" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;22&amp;P</oddFooter>
@@ -2130,11 +2084,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT33"/>
+  <dimension ref="A1:AT32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="49" zoomScaleNormal="40" zoomScaleSheetLayoutView="49" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:P2"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="84" zoomScaleNormal="40" zoomScaleSheetLayoutView="49" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -2142,63 +2094,65 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" thickBot="1"/>
+    <row r="1" spans="1:46" ht="15" thickBot="1">
+      <c r="A1" s="66"/>
+    </row>
     <row r="2" spans="1:46" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A2" s="58" t="s">
-        <v>21</v>
+      <c r="A2" s="55" t="s">
+        <v>23</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62" t="str">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59" t="str">
         <f ca="1">TEXT(TODAY(), "yyyy/m/d")&amp;"(#検査種類#)"</f>
-        <v>2023/11/21(#検査種類#)</v>
+        <v>2023/11/24(#検査種類#)</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="65" t="s">
-        <v>22</v>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="62" t="s">
+        <v>24</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="67"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="64"/>
     </row>
     <row r="3" spans="1:46" ht="37" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
     </row>
     <row r="4" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2207,7 +2161,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -2216,7 +2170,7 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -2226,286 +2180,286 @@
       <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A5" s="68">
+      <c r="A5" s="65">
         <v>1</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
     </row>
     <row r="6" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
     </row>
     <row r="7" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
     </row>
     <row r="8" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
     </row>
     <row r="9" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
     </row>
     <row r="10" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
     </row>
     <row r="11" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
     </row>
     <row r="12" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
     </row>
     <row r="13" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
     </row>
     <row r="14" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
     </row>
     <row r="15" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
     </row>
     <row r="16" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
@@ -2528,7 +2482,7 @@
       <c r="AT16" s="11"/>
     </row>
     <row r="17" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A17" s="23"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -2571,8 +2525,8 @@
       <c r="AT17" s="21"/>
     </row>
     <row r="18" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>16</v>
+      <c r="A18" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -2581,7 +2535,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -2590,7 +2544,7 @@
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
@@ -2620,33 +2574,33 @@
       <c r="AT18" s="21"/>
     </row>
     <row r="19" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A19" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69" t="s">
+      <c r="A19" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
       <c r="AA19" s="21"/>
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
@@ -2669,27 +2623,27 @@
       <c r="AT19" s="21"/>
     </row>
     <row r="20" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
       <c r="AC20" s="21"/>
@@ -2711,27 +2665,27 @@
       <c r="AT20" s="21"/>
     </row>
     <row r="21" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A21" s="68"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
       <c r="AA21" s="21"/>
       <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
@@ -2753,27 +2707,27 @@
       <c r="AT21" s="21"/>
     </row>
     <row r="22" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A22" s="68"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
       <c r="AA22" s="21"/>
       <c r="AB22" s="21"/>
       <c r="AC22" s="21"/>
@@ -2795,27 +2749,27 @@
       <c r="AT22" s="21"/>
     </row>
     <row r="23" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
       <c r="AA23" s="21"/>
       <c r="AB23" s="21"/>
       <c r="AC23" s="21"/>
@@ -2837,27 +2791,27 @@
       <c r="AT23" s="21"/>
     </row>
     <row r="24" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
       <c r="AC24" s="21"/>
@@ -2879,27 +2833,27 @@
       <c r="AT24" s="21"/>
     </row>
     <row r="25" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
       <c r="AC25" s="21"/>
@@ -2921,27 +2875,27 @@
       <c r="AT25" s="21"/>
     </row>
     <row r="26" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A26" s="68"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
       <c r="AC26" s="21"/>
@@ -2963,99 +2917,99 @@
       <c r="AT26" s="21"/>
     </row>
     <row r="27" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A27" s="68"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
     </row>
     <row r="28" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A28" s="68"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="65"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
     </row>
     <row r="29" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A29" s="68"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
     </row>
     <row r="30" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A30" s="68"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
     </row>
     <row r="31" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A31" s="25"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -3078,7 +3032,7 @@
       <c r="U31" s="11"/>
     </row>
     <row r="32" spans="1:46" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -3100,29 +3054,6 @@
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
     </row>
-    <row r="33" spans="1:21" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A2:H2"/>
@@ -3136,8 +3067,8 @@
     <mergeCell ref="O5:U16"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.59055118110236227" bottom="0.26" header="0" footer="0.7"/>
-  <pageSetup paperSize="8" scale="50" fitToHeight="0" orientation="landscape" blackAndWhite="1" horizontalDpi="1200" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.59055118110236204" right="0.196850393700787" top="0.59055118110236204" bottom="0.26" header="0" footer="0.7"/>
+  <pageSetup paperSize="8" scale="51" fitToHeight="0" orientation="landscape" blackAndWhite="1" horizontalDpi="1200" verticalDpi="360" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;22&amp;P</oddFooter>
   </headerFooter>
